--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5b-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5b</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5b</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.405937</v>
       </c>
       <c r="I2">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.4144033573843333</v>
+        <v>0.2468740144624444</v>
       </c>
       <c r="R2">
-        <v>3.729630216459</v>
+        <v>2.221866130162</v>
       </c>
       <c r="S2">
-        <v>0.08284527686633353</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="T2">
-        <v>0.1163253736233314</v>
+        <v>0.2015451970524477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.405937</v>
       </c>
       <c r="I3">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
         <v>0.831778714858</v>
@@ -638,10 +638,10 @@
         <v>7.486008433722001</v>
       </c>
       <c r="S3">
-        <v>0.1662846999089956</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="T3">
-        <v>0.2334850045340131</v>
+        <v>0.6790548829333741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>0.405937</v>
       </c>
       <c r="I4">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.002381271546111111</v>
+        <v>0.001270537705888889</v>
       </c>
       <c r="R4">
-        <v>0.021431443915</v>
+        <v>0.011434839353</v>
       </c>
       <c r="S4">
-        <v>0.0004760509224073077</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="T4">
-        <v>0.0006684364336437571</v>
+        <v>0.001037252838673693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.405937</v>
       </c>
       <c r="I5">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.4329613762448333</v>
+        <v>0.2097843851985</v>
       </c>
       <c r="R5">
-        <v>2.597768257468999</v>
+        <v>1.258706311191</v>
       </c>
       <c r="S5">
-        <v>0.08655529557924389</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="T5">
-        <v>0.08102314320689277</v>
+        <v>0.1141770910840848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,350 +794,40 @@
         <v>0.405937</v>
       </c>
       <c r="I6">
-        <v>0.3367588237660872</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4323409249697527</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.002988778818666667</v>
+        <v>0.00512693920588889</v>
       </c>
       <c r="R6">
-        <v>0.026899009368</v>
+        <v>0.046142452853</v>
       </c>
       <c r="S6">
-        <v>0.0005975004891068821</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="T6">
-        <v>0.0008389671718717667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.2664955</v>
-      </c>
-      <c r="H7">
-        <v>0.532991</v>
-      </c>
-      <c r="I7">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J7">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.062569</v>
-      </c>
-      <c r="N7">
-        <v>9.187707</v>
-      </c>
-      <c r="O7">
-        <v>0.2460077391286943</v>
-      </c>
-      <c r="P7">
-        <v>0.2690593624267</v>
-      </c>
-      <c r="Q7">
-        <v>0.8161608569394999</v>
-      </c>
-      <c r="R7">
-        <v>4.896965141637</v>
-      </c>
-      <c r="S7">
-        <v>0.1631624622623608</v>
-      </c>
-      <c r="T7">
-        <v>0.1527339888033686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.2664955</v>
-      </c>
-      <c r="H8">
-        <v>0.532991</v>
-      </c>
-      <c r="I8">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J8">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.147102</v>
-      </c>
-      <c r="N8">
-        <v>18.441306</v>
-      </c>
-      <c r="O8">
-        <v>0.4937797859292233</v>
-      </c>
-      <c r="P8">
-        <v>0.5400483531609876</v>
-      </c>
-      <c r="Q8">
-        <v>1.638175021041</v>
-      </c>
-      <c r="R8">
-        <v>9.829050126246001</v>
-      </c>
-      <c r="S8">
-        <v>0.3274950860202277</v>
-      </c>
-      <c r="T8">
-        <v>0.3065633486269745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.2664955</v>
-      </c>
-      <c r="H9">
-        <v>0.532991</v>
-      </c>
-      <c r="I9">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J9">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.01759833333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.05279499999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.001413625683459368</v>
-      </c>
-      <c r="P9">
-        <v>0.001546086421706485</v>
-      </c>
-      <c r="Q9">
-        <v>0.004689876640833333</v>
-      </c>
-      <c r="R9">
-        <v>0.028139259845</v>
-      </c>
-      <c r="S9">
-        <v>0.0009375747610520599</v>
-      </c>
-      <c r="T9">
-        <v>0.0008776499880627283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2664955</v>
-      </c>
-      <c r="H10">
-        <v>0.532991</v>
-      </c>
-      <c r="I10">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J10">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.199718499999999</v>
-      </c>
-      <c r="N10">
-        <v>6.399436999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.2570245810080547</v>
-      </c>
-      <c r="P10">
-        <v>0.1874056757697904</v>
-      </c>
-      <c r="Q10">
-        <v>0.8527105815167498</v>
-      </c>
-      <c r="R10">
-        <v>3.410842326066999</v>
-      </c>
-      <c r="S10">
-        <v>0.1704692854288108</v>
-      </c>
-      <c r="T10">
-        <v>0.1063825325628976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2664955</v>
-      </c>
-      <c r="H11">
-        <v>0.532991</v>
-      </c>
-      <c r="I11">
-        <v>0.6632411762339128</v>
-      </c>
-      <c r="J11">
-        <v>0.5676590750302473</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.022088</v>
-      </c>
-      <c r="N11">
-        <v>0.066264</v>
-      </c>
-      <c r="O11">
-        <v>0.001774268250568265</v>
-      </c>
-      <c r="P11">
-        <v>0.00194052222081558</v>
-      </c>
-      <c r="Q11">
-        <v>0.005886352604</v>
-      </c>
-      <c r="R11">
-        <v>0.035318115624</v>
-      </c>
-      <c r="S11">
-        <v>0.001176767761461383</v>
-      </c>
-      <c r="T11">
-        <v>0.001101555048943814</v>
+        <v>0.004185576091419648</v>
       </c>
     </row>
   </sheetData>
